--- a/02_MasterWifoMannheim/99_Backup/Course147.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course147.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F59281159EE98B55345F90F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69560B35-EE92-4FA8-92C6-5549F07C00BB}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 622 Country Manager</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The module is designed for students who expect to undertake international marketing assignments, work for global corporations or help smaller companies to expand globally. The course portrays opportunities and competitive challenges in regional market settings and pays special attention to the issue of standardization versus adaptation of marketing programs.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will be able to apply their theoretical and conceptual knowledge of marketing strategy and international marketing in a hands-on application exercise. sharpen their strategy formulation skills and learn about market dynamics. experience the challenges pertaining to international marketing by playing the role of a category manager for a major consumer products company. The course focuses on the computer simulation Country Manager.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration:“Student Portal” (information on central registration process) and website of the chair (course information).</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Simulation Country Manager 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Simulation result: 50%, strategy outline: 25%, final report: 25% Only one examination date per semester!</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Sabine Kuester</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 622 Country Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The module is designed for students who expect to undertake international marketing assignments, work for global corporations or help smaller companies to expand globally. The course portrays opportunities and competitive challenges in regional market settings and pays special attention to the issue of standardization versus adaptation of marketing programs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will be able to apply their theoretical and conceptual knowledge of marketing strategy and international marketing in a hands-on application exercise. sharpen their strategy formulation skills and learn about market dynamics. experience the challenges pertaining to international marketing by playing the role of a category manager for a major consumer products company. The course focuses on the computer simulation Country Manager.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:“Student Portal” (information on central registration process) and website of the chair (course information).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Simulation Country Manager 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Simulation result: 50%, strategy outline: 25%, final report: 25% Only one examination date per semester!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Sabine Kuester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
